--- a/experiments/lidar_mocap/HCN10/best_accuracy_series.xlsx
+++ b/experiments/lidar_mocap/HCN10/best_accuracy_series.xlsx
@@ -525,64 +525,64 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="J2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="O2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="P2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="Q2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="R2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>82.0478729903698</v>
+        <v>84.89583333333334</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/lidar_mocap/HCN10/best_accuracy_series.xlsx
+++ b/experiments/lidar_mocap/HCN10/best_accuracy_series.xlsx
@@ -525,64 +525,64 @@
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="F2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="G2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="I2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="J2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="K2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="L2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="M2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="N2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="O2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="P2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="R2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="S2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="T2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
       <c r="U2" t="n">
-        <v>84.89583333333334</v>
+        <v>85.67708333333334</v>
       </c>
     </row>
   </sheetData>
